--- a/report/Results summary.xlsx
+++ b/report/Results summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\__uni\Autoformer\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{56E44908-1503-4399-8219-E5075B0DC21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC11E5B-9DC9-402A-A2BC-E5A07DB229AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0D0B57C7-4B5F-40EF-ADC9-7A98D33306A9}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="50">
   <si>
     <t>case</t>
   </si>
@@ -139,13 +139,37 @@
     <t>All + EMA - LUFL</t>
   </si>
   <si>
-    <t>bad(real: 0.118, 0.256), good (in my exp)</t>
-  </si>
-  <si>
     <t>features_OT_ETTm2_96_192_Autoformer_ETTm2_ftS_sl96_ll48_pl192_dm512_nh18_el2_dl1_df2048_fc1_ebtimeF_dtTrue_Exp_2</t>
   </si>
   <si>
-    <t>paper</t>
+    <t>features_All_BTC-3Y_series1_96_96_Autoformer_ETTm2_ftM_sl96_ll48_pl96_dm512_nh18_el2_dl1_df2048_fc1_ebtimeF_dtTrue_Exp_0</t>
+  </si>
+  <si>
+    <t>features_All_BTC-3Y_series2_96_96_Autoformer_ETTm2_ftM_sl96_ll48_pl96_dm512_nh18_el2_dl1_df2048_fc1_ebtimeF_dtTrue_Exp_0</t>
+  </si>
+  <si>
+    <t>features_All-EMA_BTC-3Y_series1_96_96_Autoformer_ETTm2_ftM_sl96_ll48_pl96_dm512_nh18_el2_dl1_df2048_fc1_ebtimeF_dtTrue_Exp_0</t>
+  </si>
+  <si>
+    <t>features_All-lstm_cnn_hybrid_BTC-3Y_96_96_Autoformer_ETTm2_ftM_sl96_ll48_pl96_dm512_nh18_el2_dl1_df2048_fc1_ebtimeF_dtTrue_Exp_2</t>
+  </si>
+  <si>
+    <t>All + lstm + cnn + hybrid</t>
+  </si>
+  <si>
+    <t>___features_OT-lstm_cnn_hybrid_ETTm2_96_192_Autoformer_ETTm2_ftM_sl96_ll48_pl192_dm512_nh18_el2_dl1_df2048_fc1_ebtimeF_dtTrue_Exp_2</t>
+  </si>
+  <si>
+    <t>OT + lstm_cnn_hybrid</t>
+  </si>
+  <si>
+    <t>___features_OT-lstm_cnn_hybrid_ETTh1_96_48_Autoformer_ETTh1_ftM_sl96_ll48_pl48_dm512_nh18_el2_dl1_df2048_fc1_ebtimeF_dtTrue_Exp_2</t>
+  </si>
+  <si>
+    <t>paperM(0.392, 0.419)</t>
+  </si>
+  <si>
+    <t>paperS(real: 0.118, 0.256), paperM(0.281±0.027, 0.340±0.025)</t>
   </si>
 </sst>
 </file>
@@ -153,7 +177,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -297,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,6 +540,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,22 +710,24 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1051,16 +1083,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC49915-A8E7-4BB1-8812-E70BD6BDF81F}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="150.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="1"/>
@@ -1092,67 +1125,67 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="15">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="15">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="15">
         <v>0.26048162579536399</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="16">
         <v>0.391358733177185</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="15">
         <v>0.23569999999999999</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="16">
         <v>0.369986742734909</v>
       </c>
     </row>
@@ -1853,6 +1886,186 @@
       </c>
       <c r="J27" s="14">
         <v>0.48466199636459301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1.2937155961990301</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.83308523893356301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1.1036707162857</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.78646677732467596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31">
+        <v>1.3311017751693699</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.85743510723114003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32">
+        <v>1.8401297330856301</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1.04612648487091</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>14</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="15">
+        <v>0.21504676342010401</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0.352526605129241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34">
+        <v>0.118718966841697</v>
+      </c>
+      <c r="J34">
+        <v>0.264670580625534</v>
       </c>
     </row>
   </sheetData>

--- a/report/Results summary.xlsx
+++ b/report/Results summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\__uni\Autoformer\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC11E5B-9DC9-402A-A2BC-E5A07DB229AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8659EEF-19DE-40CE-B954-20D6EDBE4C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0D0B57C7-4B5F-40EF-ADC9-7A98D33306A9}"/>
   </bookViews>
@@ -321,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,6 +546,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,7 +716,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -728,6 +734,8 @@
     <xf numFmtId="164" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1085,9 +1093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC49915-A8E7-4BB1-8812-E70BD6BDF81F}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,64 +1313,64 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="17">
         <v>3</v>
       </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="17">
         <v>9.9699999999999997E-2</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="18">
         <v>0.2487</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="D9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="17">
         <v>9.2399999999999996E-2</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="18">
         <v>0.22450000000000001</v>
       </c>
     </row>
